--- a/fasp/runner/credits/ScriptSummary.xlsx
+++ b/fasp/runner/credits/ScriptSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forei/dev/fasp-scripts/credits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forei/dev/fasp-scripts/fasp/runner/credits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6570E912-313D-6B45-BE63-D7C3F07B7C09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE818F9-B355-6747-A1C2-F4E59ECACBDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="500" windowWidth="45340" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14940" yWindow="3660" windowWidth="45340" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pipelineLog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>script</t>
   </si>
@@ -152,6 +152,57 @@
   </si>
   <si>
     <t>GECCO Phenopackets</t>
+  </si>
+  <si>
+    <t>FASPScript13.py</t>
+  </si>
+  <si>
+    <t>One k query SRA DRS</t>
+  </si>
+  <si>
+    <t>DRSClient</t>
+  </si>
+  <si>
+    <t>FASPScript14.py</t>
+  </si>
+  <si>
+    <t>FASPScript15.py</t>
+  </si>
+  <si>
+    <t>Anvil GTEX Test</t>
+  </si>
+  <si>
+    <t>localSearchClient</t>
+  </si>
+  <si>
+    <t>FASPScript17.py</t>
+  </si>
+  <si>
+    <t>GTEx and TCGA</t>
+  </si>
+  <si>
+    <t>Retire</t>
+  </si>
+  <si>
+    <t>Notebook done</t>
+  </si>
+  <si>
+    <t>FASPScript16.py</t>
+  </si>
+  <si>
+    <t>Replace with SRA DRS</t>
+  </si>
+  <si>
+    <t>Notebook and use Seven Bridges WES</t>
+  </si>
+  <si>
+    <t>Notebook and use Seven Bridges WES, demo use of two stacks</t>
+  </si>
+  <si>
+    <t>retire - 14 is preferable</t>
+  </si>
+  <si>
+    <t>SRAExample</t>
   </si>
 </sst>
 </file>
@@ -692,6 +743,12 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -699,12 +756,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E21"/>
+  <dimension ref="A2:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,9 +1126,10 @@
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1110,34 +1162,42 @@
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="F3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="11"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="E5" s="8"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1153,8 +1213,12 @@
       <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="F6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1170,8 +1234,10 @@
       <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1187,8 +1253,10 @@
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1204,8 +1272,10 @@
       <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1221,8 +1291,10 @@
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1238,8 +1310,10 @@
       <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1255,8 +1329,10 @@
       <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1272,8 +1348,12 @@
       <c r="E13" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="F13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1289,8 +1369,10 @@
       <c r="E14" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1306,70 +1388,180 @@
       <c r="E15" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E21" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="5" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="2" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="1" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E16">
-    <sortCondition ref="A3:A16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E21">
+    <sortCondition ref="A3:A21"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/fasp/runner/credits/ScriptSummary.xlsx
+++ b/fasp/runner/credits/ScriptSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forei/dev/fasp-scripts/fasp/runner/credits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE818F9-B355-6747-A1C2-F4E59ECACBDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4DA241-E208-564C-A9F7-892EB7AB252C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="3660" windowWidth="45340" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5860" yWindow="3660" windowWidth="45340" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pipelineLog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
   <si>
     <t>script</t>
   </si>
@@ -203,6 +203,21 @@
   </si>
   <si>
     <t>SRAExample</t>
+  </si>
+  <si>
+    <t>FASPScript18.py</t>
+  </si>
+  <si>
+    <t>sbWESClient</t>
+  </si>
+  <si>
+    <t>Anvil GTEX SB</t>
+  </si>
+  <si>
+    <t>Modified version of 15 to use free amazon data. Move to notebook</t>
+  </si>
+  <si>
+    <t>Gen3ManifestClient</t>
   </si>
 </sst>
 </file>
@@ -1113,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G26"/>
+  <dimension ref="A2:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1126,7 +1141,7 @@
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="44.33203125" customWidth="1"/>
+    <col min="6" max="6" width="60.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="65" customHeight="1" x14ac:dyDescent="0.3">
@@ -1496,72 +1511,93 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="10"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+    <row r="23" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="2" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
+    <row r="27" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E21">
-    <sortCondition ref="A3:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E22">
+    <sortCondition ref="A3:A22"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/fasp/runner/credits/ScriptSummary.xlsx
+++ b/fasp/runner/credits/ScriptSummary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forei/dev/fasp-scripts/fasp/runner/credits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4DA241-E208-564C-A9F7-892EB7AB252C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0C7AE1-FC52-8243-9947-8C94F1C7D1B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5860" yWindow="3660" windowWidth="45340" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
   <si>
     <t>script</t>
   </si>
@@ -181,24 +181,15 @@
     <t>GTEx and TCGA</t>
   </si>
   <si>
-    <t>Retire</t>
-  </si>
-  <si>
     <t>Notebook done</t>
   </si>
   <si>
     <t>FASPScript16.py</t>
   </si>
   <si>
-    <t>Replace with SRA DRS</t>
-  </si>
-  <si>
     <t>Notebook and use Seven Bridges WES</t>
   </si>
   <si>
-    <t>Notebook and use Seven Bridges WES, demo use of two stacks</t>
-  </si>
-  <si>
     <t>retire - 14 is preferable</t>
   </si>
   <si>
@@ -218,13 +209,76 @@
   </si>
   <si>
     <t>Gen3ManifestClient</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>FASPNotebook09</t>
+  </si>
+  <si>
+    <t>FASPNotebook10</t>
+  </si>
+  <si>
+    <t>FASPNotebook02</t>
+  </si>
+  <si>
+    <t>Retire - had value as a step on the way to 4</t>
+  </si>
+  <si>
+    <t>In terms of a 'full house' superseded by other notebooks, but has value in that uses the DNAStack WES client. In the move to notebooks many scripts have been adapted to use the SB client in place of DNA Stack or direct GCP compute.</t>
+  </si>
+  <si>
+    <t>To do</t>
+  </si>
+  <si>
+    <t>Same query as in 2, uses SB compute instead of GCP.</t>
+  </si>
+  <si>
+    <t>Move to notebook</t>
+  </si>
+  <si>
+    <t>SDL now superseded by SRA DRS. Has value in that MD5 returns an output as part of the response. As opposed to just a file</t>
+  </si>
+  <si>
+    <t>Move to notebook. Demonstrate return of the result into a dataframe.</t>
+  </si>
+  <si>
+    <t>Value is in using a user originated scientific question. Can be moved to a full house using DiscovertSearchClient and an SB compute.</t>
+  </si>
+  <si>
+    <t>Value as validation for 9</t>
+  </si>
+  <si>
+    <t>Different dataset (GECCO), controlled access dataset</t>
+  </si>
+  <si>
+    <t>Needs dataset with index files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notebook done and moved to full house. </t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>Request access to provided dataset</t>
+  </si>
+  <si>
+    <t>GTEX Example</t>
+  </si>
+  <si>
+    <t>Replace with SRA DRS. Companion to 15. Same notebook?</t>
+  </si>
+  <si>
+    <t>Notebook done and use Seven Bridges WES, demo use of two stacks, and double up FASPRunner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -381,6 +435,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -575,7 +642,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -705,6 +772,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -750,7 +863,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -772,6 +885,50 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1128,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G27"/>
+  <dimension ref="A2:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C23"/>
+      <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1141,10 +1298,11 @@
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="60.1640625" customWidth="1"/>
+    <col min="6" max="6" width="86.1640625" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1160,8 +1318,14 @@
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="F2" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1178,11 +1342,11 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1198,10 +1362,14 @@
       <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="F4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="8"/>
@@ -1209,10 +1377,11 @@
         <v>14</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="F5" s="15"/>
+      <c r="G5" s="19"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1229,11 +1398,11 @@
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="100" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1249,10 +1418,14 @@
       <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="F7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1268,173 +1441,192 @@
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="F9" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="50" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="F10" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="F11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="F12" s="19"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="F14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>8</v>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>46</v>
@@ -1442,35 +1634,36 @@
       <c r="E17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>60</v>
+      <c r="F17" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>49</v>
@@ -1478,127 +1671,178 @@
       <c r="C19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>30</v>
+      <c r="D19" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>41</v>
+      <c r="D20" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>63</v>
+      <c r="A21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
       <c r="D23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+    <row r="24" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="2" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="1" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E22">
-    <sortCondition ref="A3:A22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E24">
+    <sortCondition ref="A3:A24"/>
   </sortState>
-  <mergeCells count="12">
-    <mergeCell ref="E26:E27"/>
+  <mergeCells count="24">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E28:E29"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/fasp/runner/credits/ScriptSummary.xlsx
+++ b/fasp/runner/credits/ScriptSummary.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forei/dev/fasp-scripts/fasp/runner/credits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0C7AE1-FC52-8243-9947-8C94F1C7D1B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E3C99F-5C4E-FE4A-9422-D4DE27235034}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="3660" windowWidth="45340" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30460" yWindow="460" windowWidth="37380" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pipelineLog" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -232,9 +243,6 @@
     <t>To do</t>
   </si>
   <si>
-    <t>Same query as in 2, uses SB compute instead of GCP.</t>
-  </si>
-  <si>
     <t>Move to notebook</t>
   </si>
   <si>
@@ -272,6 +280,9 @@
   </si>
   <si>
     <t>Notebook done and use Seven Bridges WES, demo use of two stacks, and double up FASPRunner</t>
+  </si>
+  <si>
+    <t>Same query as in 2, uses SB compute instead of GCP. Retire as Notebook02 now does SB compute</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1299,7 @@
   <dimension ref="A2:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
+      <selection activeCell="F11" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1319,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>63</v>
@@ -1425,7 +1436,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="50" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1441,8 +1452,8 @@
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>70</v>
+      <c r="F8" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -1463,10 +1474,10 @@
         <v>9</v>
       </c>
       <c r="F9" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>72</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="50" x14ac:dyDescent="0.3">
@@ -1486,10 +1497,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.3">
@@ -1509,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="24" x14ac:dyDescent="0.3">
@@ -1589,10 +1600,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="24" x14ac:dyDescent="0.3">
@@ -1612,10 +1623,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.3">
@@ -1655,7 +1666,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>57</v>
@@ -1681,7 +1692,7 @@
         <v>55</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.3">
@@ -1701,7 +1712,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="3"/>
     </row>
@@ -1722,7 +1733,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>53</v>

--- a/fasp/runner/credits/ScriptSummary.xlsx
+++ b/fasp/runner/credits/ScriptSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forei/dev/fasp-scripts/fasp/runner/credits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E3C99F-5C4E-FE4A-9422-D4DE27235034}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBEC9BF-E605-374D-85E3-3FE6D23EED88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30460" yWindow="460" windowWidth="37380" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33500" yWindow="460" windowWidth="37860" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pipelineLog" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>script</t>
   </si>
@@ -240,9 +240,6 @@
     <t>In terms of a 'full house' superseded by other notebooks, but has value in that uses the DNAStack WES client. In the move to notebooks many scripts have been adapted to use the SB client in place of DNA Stack or direct GCP compute.</t>
   </si>
   <si>
-    <t>To do</t>
-  </si>
-  <si>
     <t>Move to notebook</t>
   </si>
   <si>
@@ -261,21 +258,12 @@
     <t>Different dataset (GECCO), controlled access dataset</t>
   </si>
   <si>
-    <t>Needs dataset with index files</t>
-  </si>
-  <si>
     <t xml:space="preserve">Notebook done and moved to full house. </t>
   </si>
   <si>
     <t>Discussion</t>
   </si>
   <si>
-    <t>Request access to provided dataset</t>
-  </si>
-  <si>
-    <t>GTEX Example</t>
-  </si>
-  <si>
     <t>Replace with SRA DRS. Companion to 15. Same notebook?</t>
   </si>
   <si>
@@ -283,6 +271,24 @@
   </si>
   <si>
     <t>Same query as in 2, uses SB compute instead of GCP. Retire as Notebook02 now does SB compute</t>
+  </si>
+  <si>
+    <t>Needs dataset with index files. Request access to provided dataset.</t>
+  </si>
+  <si>
+    <t>FASPNotebook12</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Needs to run on cloud vm</t>
+  </si>
+  <si>
+    <t>FASPNotebook15-GTEXExample-GCP</t>
+  </si>
+  <si>
+    <t>FASPNotebook18-GTEXExample-AWS</t>
   </si>
 </sst>
 </file>
@@ -882,6 +888,50 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -896,50 +946,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1299,7 +1305,7 @@
   <dimension ref="A2:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1329,10 +1335,10 @@
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1356,41 +1362,47 @@
         <v>67</v>
       </c>
       <c r="G3" s="3"/>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="21" t="s">
         <v>66</v>
       </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="19"/>
-      <c r="K5" s="17"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="22"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1429,11 +1441,11 @@
       <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="50" x14ac:dyDescent="0.3">
@@ -1452,10 +1464,13 @@
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>83</v>
+      <c r="F8" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G8" s="3"/>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1464,20 +1479,20 @@
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="50" x14ac:dyDescent="0.3">
@@ -1487,55 +1502,55 @@
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>70</v>
+      <c r="F10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="23" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>70</v>
+      <c r="F11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="23"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="24"/>
       <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="15"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1600,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="24" x14ac:dyDescent="0.3">
@@ -1623,10 +1638,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.3">
@@ -1666,7 +1681,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>57</v>
@@ -1691,8 +1706,8 @@
       <c r="F19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="27" t="s">
-        <v>80</v>
+      <c r="G19" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.3">
@@ -1712,15 +1727,15 @@
         <v>6</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1729,28 +1744,28 @@
       <c r="D21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="12" t="s">
+      <c r="F21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="13"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -1771,75 +1786,65 @@
       <c r="F23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="28" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E24">
     <sortCondition ref="A3:A24"/>
   </sortState>
   <mergeCells count="24">
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="E4:E5"/>
@@ -1852,6 +1857,18 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
